--- a/excelek/proginfo.xlsx
+++ b/excelek/proginfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="12" windowWidth="18960" windowHeight="11328"/>
+    <workbookView xWindow="120" yWindow="12" windowWidth="18960" windowHeight="11328" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="503">
   <si>
     <r>
       <rPr>
@@ -4404,44 +4404,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Szabadon választható tárgyak
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Optional General Subjects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Differenciált szakmai ismeretek
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Optional Professional Subjects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Angol nyelv IV. English Language IV</t>
     </r>
   </si>
@@ -4718,34 +4680,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Differenciált szakmai ismeretek
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Optional Professional
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Subjects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Tervezés I. Design I</t>
     </r>
   </si>
@@ -4958,29 +4892,1669 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Szabadon választható tárgyak
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Optional General
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Subjects</t>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Információs technológiák</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Információ-visszakeresés Information Retrieval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIAIB253K</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1+0+2 F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30   70</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AI (IN)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T1, K3, K5, K9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adattárház technológiák
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Warehouse Technologies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB232T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T3, T5, K1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NoSQL technológiák NoSQL Technologies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB132Q</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Intelligens döntéstámogatás</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bevezetés a lágy számítás módszereibe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Introduction into Soft Computing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIMAB512L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T1,T3,T5, K1,K3, K5,K9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Döntéstámogatás Decision Support</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB153D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">T1, T5, T6,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K1, K2, K5, K9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A Data Science alapjai Fundamentals of Data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Science</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB152A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIMAB143A VEMISAB154B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T1, T6, K1, K13, K16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Adatbányászat Data Mining</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB232A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0+0+3 F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">T1, T3, T5,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T6, K1, K2, K3, K4, K13, K14,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Folyamatbányászat Process Mining</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB212F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T1, K1, K2, K3, K5, K9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Adatelemzés Pythonban Python for Data Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB232P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10   90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB132P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">T1, T2, T5,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">T6, K1, K3, K13, K14,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Szoftverfejlesztés</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Programozási nyelvek Programming Languages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB153N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+0+1 K</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C# programozás C# Programming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIMAB222C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0   100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Java programozás II. Java programming II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB234J</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0+0+4 F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T3 K1, K3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Funkcionális programnyelvek Functional Programming
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Languages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMICO5332F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bevezetés a Python programozási nyelvbe Introduction to Python
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Programming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10   90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T3, T6, K1, K3, K13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Szoftverfejlesztés nagyvállalati környezetben
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Softwarw development in corporate environmemt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB512N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T3, T4, T8, K4, K9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Az informatika ipari alkalmazásai
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Industrial Application of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Informatics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISA5312A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T3, T4, T7, K4, K9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kotlin programozás Kotlin programming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB332K</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20   80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Szoftverfejlesztés Qt keretrendszerrel Software development
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>with Qt framework</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB232S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0+0+2 V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0  100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T5, K3, K16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Virtuális valóság és multimédia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Virtuális valóság I. Virtual Reality I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMKKN5244A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB112A VEMISAB154R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T5, K1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Virtuális valóság II. Virtual Reality II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB154V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A multimédia alapjai Fundamentals of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Multimedia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB154A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20   80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alkalmazott informatika</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Statisztikai programcsomagok Statistical Software
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Packages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VETKMA5122S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T1, T5, K1, K8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Matematikai programcsomagok Mathematical Software Packages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIMA4152P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIMAB144A VEMKMA1143V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gyártásoptimalizálás Production Optimization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMISAB253G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1+0+2 K</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20   80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIAB243A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T1, T2, K1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Robotika Robotics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB112R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>80   20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, K1, K2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Robotika labor Robotics Lab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB234R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Felhasználói interfészek tervezése
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User Interface Design</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIKN5312I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T4, K1, K4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Egészségügyi informatika Informatics in Medicine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIIR5344E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T3, K14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Az információ vizuális megjelenítésének és mérésének alapjai Principles of Visualization
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and Measurement of Visual Information</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB253A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+0+1 F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T3, T7, K14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Autóipari szoftver- és hardverfejlesztés a gyakorlatban I. Hardware and software
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>development in auto industry I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB154C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20   80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">T2, T3, T5,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K3, K4, K9, K16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Autóipari szoftver- és hardverfejlesztés a gyakorlatban II. Hardware and software development in auto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>industry II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB254C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Informatikai rendszerek és hálózatok</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Linux rendszergazda ismeretek I.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Linux System Administration I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB353L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T3, T5, K1, K11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Linux rendszergazda ismeretek II.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Linux System Administration II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB332L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nagyvállalati Linux technológiák
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Linux Server
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Technologies in the Enterprise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB332V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Virtualizációs technológiák a gyakorlatban Virtualization Technologies in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Practice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB533V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2, T3, T5, T7, K1, K11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Számítógép hálózatok II. Computer Networks II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB354H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Informatikai rendszerek konfigurálása és üzemeltetése Configuration and Operation of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Information Systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIIR5354I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">T2, T3, T4,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T5, T7, K1, K11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Távközlési hálózatok Telecommunication Networks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIVIB112H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2+0+0 K</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Egységes kommunikáció Unified Communication</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VEMIINB253C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30 70</t>
     </r>
   </si>
   <si>
@@ -4991,1685 +6565,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Differenciált szakmai ismeretek</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Információs technológiák</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Információ-visszakeresés Information Retrieval</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIAIB253K</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1+0+2 F</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>30   70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AI (IN)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T1, K3, K5, K9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Adattárház technológiák
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Data Warehouse Technologies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB232T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T3, T5, K1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NoSQL technológiák NoSQL Technologies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB132Q</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Intelligens döntéstámogatás</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bevezetés a lágy számítás módszereibe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Introduction into Soft Computing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIMAB512L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T1,T3,T5, K1,K3, K5,K9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Döntéstámogatás Decision Support</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB153D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">T1, T5, T6,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>K1, K2, K5, K9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">A Data Science alapjai Fundamentals of Data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Science</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB152A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIMAB143A VEMISAB154B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T1, T6, K1, K13, K16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Adatbányászat Data Mining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB232A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0+0+3 F</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">T1, T3, T5,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T6, K1, K2, K3, K4, K13, K14,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Folyamatbányászat Process Mining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB212F</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T1, K1, K2, K3, K5, K9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Adatelemzés Pythonban Python for Data Analysis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB232P</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10   90</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB132P</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">T1, T2, T5,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">T6, K1, K3, K13, K14,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>K16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Szoftverfejlesztés</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Programozási nyelvek Programming Languages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB153N</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2+0+1 K</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>C# programozás C# Programming</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIMAB222C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0   100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Java programozás II. Java programming II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB234J</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0+0+4 F</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T3 K1, K3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Funkcionális programnyelvek Functional Programming
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Languages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMICO5332F</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bevezetés a Python programozási nyelvbe Introduction to Python
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Programming</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10   90</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T3, T6, K1, K3, K13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Szoftverfejlesztés nagyvállalati környezetben
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Softwarw development in corporate environmemt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB512N</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T3, T4, T8, K4, K9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Az informatika ipari alkalmazásai
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Industrial Application of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Informatics</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISA5312A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T3, T4, T7, K4, K9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Kotlin programozás Kotlin programming</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB332K</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20   80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Szoftverfejlesztés Qt keretrendszerrel Software development
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>with Qt framework</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB232S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0+0+2 V</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0  100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T5, K3, K16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Virtuális valóság és multimédia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Virtuális valóság I. Virtual Reality I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMKKN5244A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB112A VEMISAB154R</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T5, K1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Virtuális valóság II. Virtual Reality II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB154V</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">A multimédia alapjai Fundamentals of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Multimedia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB154A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20   80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Alkalmazott informatika</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Statisztikai programcsomagok Statistical Software
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Packages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VETKMA5122S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T1, T5, K1, K8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Matematikai programcsomagok Mathematical Software Packages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIMA4152P</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIMAB144A VEMKMA1143V</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Gyártásoptimalizálás Production Optimization</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMISAB253G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1+0+2 K</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20   80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIAB243A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T1, T2, K1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Robotika Robotics</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB112R</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>80   20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, K1, K2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Robotika labor Robotics Lab</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB234R</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Felhasználói interfészek tervezése
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>User Interface Design</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIKN5312I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T4, K1, K4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Egészségügyi informatika Informatics in Medicine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIIR5344E</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T3, K14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Az információ vizuális megjelenítésének és mérésének alapjai Principles of Visualization
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>and Measurement of Visual Information</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB253A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2+0+1 F</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T3, T7, K14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Autóipari szoftver- és hardverfejlesztés a gyakorlatban I. Hardware and software
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>development in auto industry I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB154C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20   80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">T2, T3, T5,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>K3, K4, K9, K16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Autóipari szoftver- és hardverfejlesztés a gyakorlatban II. Hardware and software development in auto
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>industry II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB254C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Informatikai rendszerek és hálózatok</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Linux rendszergazda ismeretek I.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Linux System Administration I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB353L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T3, T5, K1, K11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Linux rendszergazda ismeretek II.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Linux System Administration II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB332L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nagyvállalati Linux technológiák
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Linux Server
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Technologies in the Enterprise</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB332V</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Virtualizációs technológiák a gyakorlatban Virtualization Technologies in
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Practice</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB533V</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2, T3, T5, T7, K1, K11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Számítógép hálózatok II. Computer Networks II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB354H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informatikai rendszerek konfigurálása és üzemeltetése Configuration and Operation of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Information Systems</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIIR5354I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">T2, T3, T4,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T5, T7, K1, K11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Távközlési hálózatok Telecommunication Networks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIVIB112H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2+0+0 K</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Egységes kommunikáció Unified Communication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VEMIINB253C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>30 70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Összesítés</t>
     </r>
   </si>
@@ -7380,6 +7275,27 @@
   </si>
   <si>
     <t>Programtervező informatikus BSc Computer Science BSc nappali tagozat tanterve</t>
+  </si>
+  <si>
+    <t>VEPETO1122A</t>
+  </si>
+  <si>
+    <t>VEPETO2222A</t>
+  </si>
+  <si>
+    <t>VEPETO4222A</t>
+  </si>
+  <si>
+    <t>VEPETO3122A</t>
+  </si>
+  <si>
+    <t>Differenciált szakmai ismeretek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szabadon választható tárgyak </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -7723,7 +7639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7967,11 +7883,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="18"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="18"/>
@@ -8024,6 +7946,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8053,9 +7978,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="18"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8412,7 +8334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -8424,95 +8346,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="A1" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="1:3" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
     </row>
     <row r="5" spans="1:3" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
     </row>
     <row r="6" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
     </row>
     <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
     </row>
     <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="9" spans="1:3" ht="41.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:3" ht="47.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
     </row>
     <row r="11" spans="1:3" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
     </row>
     <row r="14" spans="1:3" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -8612,7 +8534,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8628,16 +8550,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="A1" s="102" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8" ht="51.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -8663,45 +8585,45 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
+      <c r="A3" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>155</v>
@@ -8716,15 +8638,15 @@
         <v>214</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>155</v>
@@ -8739,29 +8661,29 @@
         <v>249</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
+      <c r="A7" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>135</v>
@@ -8773,18 +8695,18 @@
         <v>126</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>179</v>
@@ -8796,15 +8718,15 @@
         <v>126</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>253</v>
@@ -8816,21 +8738,21 @@
         <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>179</v>
@@ -8839,21 +8761,21 @@
         <v>142</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>250</v>
@@ -8865,52 +8787,52 @@
         <v>126</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
+      <c r="A14" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>184</v>
@@ -8927,16 +8849,16 @@
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>119</v>
@@ -8950,13 +8872,13 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>147</v>
@@ -8968,21 +8890,21 @@
         <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>119</v>
@@ -8996,16 +8918,16 @@
     </row>
     <row r="19" spans="1:7" ht="51.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>142</v>
@@ -9014,15 +8936,15 @@
         <v>139</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>134</v>
@@ -9037,15 +8959,15 @@
         <v>221</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>134</v>
@@ -9060,21 +8982,21 @@
         <v>191</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>142</v>
@@ -9088,16 +9010,16 @@
     </row>
     <row r="23" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>142</v>
@@ -9106,29 +9028,29 @@
         <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
+      <c r="A24" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
     </row>
     <row r="25" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>124</v>
@@ -9137,21 +9059,21 @@
         <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>124</v>
@@ -9160,58 +9082,58 @@
         <v>136</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>136</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
-        <v>384</v>
-      </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
+      <c r="A28" s="96" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
     </row>
     <row r="29" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>119</v>
@@ -9220,15 +9142,15 @@
         <v>212</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>253</v>
@@ -9240,47 +9162,47 @@
         <v>119</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>136</v>
@@ -9289,18 +9211,18 @@
         <v>131</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>246</v>
@@ -9309,18 +9231,18 @@
         <v>136</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>219</v>
@@ -9335,18 +9257,18 @@
         <v>221</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>124</v>
@@ -9358,18 +9280,18 @@
         <v>214</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>184</v>
@@ -9381,21 +9303,21 @@
         <v>133</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>202</v>
@@ -9404,21 +9326,21 @@
         <v>191</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>202</v>
@@ -9427,32 +9349,32 @@
         <v>191</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97" t="s">
-        <v>419</v>
-      </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99"/>
+      <c r="A39" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="101"/>
     </row>
     <row r="40" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>202</v>
@@ -9461,15 +9383,15 @@
         <v>133</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>155</v>
@@ -9481,47 +9403,47 @@
         <v>202</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>202</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>202</v>
@@ -9530,15 +9452,15 @@
         <v>257</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>146</v>
@@ -9553,21 +9475,21 @@
         <v>227</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>202</v>
@@ -9576,18 +9498,18 @@
         <v>257</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>201</v>
@@ -9599,21 +9521,21 @@
         <v>227</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>202</v>
@@ -9622,7 +9544,7 @@
         <v>227</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -9659,34 +9581,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
+      <c r="A1" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>442</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9791,7 +9713,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B9" s="50">
         <v>138</v>
@@ -9810,15 +9732,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
-        <v>449</v>
-      </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
+      <c r="A10" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9847,16 +9769,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="57.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9864,57 +9786,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>458</v>
+      <c r="B3" s="105" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>453</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="185.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>5</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -9924,7 +9846,7 @@
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
       <c r="D7" s="59" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9932,7 +9854,7 @@
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9940,13 +9862,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9954,7 +9876,7 @@
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
       <c r="D10" s="69" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9962,7 +9884,7 @@
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
       <c r="D11" s="69" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9970,115 +9892,115 @@
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
       <c r="D12" s="71" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>8</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="59" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>9</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="59" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
       <c r="D15" s="64" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
       <c r="D16" s="69" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
       <c r="D17" s="69" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="69" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
       <c r="D19" s="69" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
       <c r="D20" s="69" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
       <c r="D21" s="69" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="108" t="s">
-        <v>480</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>481</v>
+      <c r="A22" s="109"/>
+      <c r="B22" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" s="112" t="s">
+        <v>476</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="72">
         <v>10</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73">
         <v>11</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="61" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10086,7 +10008,7 @@
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
       <c r="D25" s="71" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -10096,7 +10018,7 @@
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="59" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10106,7 +10028,7 @@
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
       <c r="D27" s="61" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10114,7 +10036,7 @@
       <c r="B28" s="63"/>
       <c r="C28" s="63"/>
       <c r="D28" s="71" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10124,7 +10046,7 @@
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
       <c r="D29" s="61" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10132,7 +10054,7 @@
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
       <c r="D30" s="71" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10140,7 +10062,7 @@
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
       <c r="D31" s="64" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10148,7 +10070,7 @@
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
       <c r="D32" s="69" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10158,7 +10080,7 @@
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
       <c r="D33" s="69" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10166,7 +10088,7 @@
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
       <c r="D34" s="69" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10174,7 +10096,7 @@
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
       <c r="D35" s="69" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -10182,7 +10104,7 @@
       <c r="B36" s="74"/>
       <c r="C36" s="74"/>
       <c r="D36" s="71" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -10190,13 +10112,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -10229,11 +10151,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -10372,102 +10294,102 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
     </row>
     <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
     </row>
     <row r="24" spans="1:3" ht="109.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
     </row>
     <row r="25" spans="1:3" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
     </row>
     <row r="27" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
     </row>
     <row r="28" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
     </row>
     <row r="30" spans="1:3" ht="190.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
     </row>
     <row r="32" spans="1:3" ht="100.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10508,68 +10430,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" ht="104.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
     </row>
     <row r="5" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:4" ht="27.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
     </row>
     <row r="7" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -10626,92 +10548,92 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
     </row>
     <row r="16" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
     </row>
     <row r="17" spans="1:4" ht="69.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
     </row>
     <row r="18" spans="1:4" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
     </row>
     <row r="21" spans="1:4" ht="69.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
     </row>
     <row r="23" spans="1:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
     </row>
     <row r="24" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -10744,7 +10666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -10761,16 +10683,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -10812,7 +10734,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>120</v>
+        <v>502</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>12</v>
@@ -10835,7 +10757,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>12</v>
@@ -11027,7 +10949,9 @@
       <c r="A13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="23" t="s">
+        <v>496</v>
+      </c>
       <c r="C13" s="18" t="s">
         <v>117</v>
       </c>
@@ -11054,16 +10978,16 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11079,7 +11003,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11094,16 +11018,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -11381,7 +11305,9 @@
       <c r="A14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>497</v>
+      </c>
       <c r="C14" s="18" t="s">
         <v>117</v>
       </c>
@@ -11420,7 +11346,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11436,16 +11362,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -11675,7 +11601,9 @@
       <c r="A12" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>499</v>
+      </c>
       <c r="C12" s="18" t="s">
         <v>117</v>
       </c>
@@ -11713,8 +11641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11730,16 +11658,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="51.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -11903,8 +11831,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>264</v>
+      <c r="A9" s="81" t="s">
+        <v>501</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -11916,8 +11844,8 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>265</v>
+      <c r="A10" s="81" t="s">
+        <v>500</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11930,10 +11858,10 @@
     </row>
     <row r="11" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>160</v>
@@ -11951,9 +11879,11 @@
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="23"/>
+        <v>266</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>498</v>
+      </c>
       <c r="C12" s="18" t="s">
         <v>117</v>
       </c>
@@ -11991,8 +11921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12008,16 +11938,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="A1" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -12044,13 +11974,13 @@
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>272</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>124</v>
@@ -12059,21 +11989,21 @@
         <v>119</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>124</v>
@@ -12085,15 +12015,15 @@
         <v>212</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>146</v>
@@ -12102,7 +12032,7 @@
         <v>147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>231</v>
@@ -12113,10 +12043,10 @@
     </row>
     <row r="6" spans="1:8" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>146</v>
@@ -12128,18 +12058,18 @@
         <v>202</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>155</v>
@@ -12154,12 +12084,12 @@
         <v>249</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>264</v>
+      <c r="A8" s="81" t="s">
+        <v>501</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -12171,8 +12101,8 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>289</v>
+      <c r="A9" s="81" t="s">
+        <v>500</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -12185,13 +12115,13 @@
     </row>
     <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>246</v>
@@ -12200,10 +12130,10 @@
         <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -12232,7 +12162,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12247,16 +12177,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="A1" s="95" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -12283,10 +12213,10 @@
     </row>
     <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>178</v>
@@ -12298,21 +12228,21 @@
         <v>142</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>184</v>
@@ -12324,35 +12254,35 @@
         <v>218</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>202</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>307</v>
+      <c r="A6" s="81" t="s">
+        <v>501</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12364,8 +12294,8 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>265</v>
+      <c r="A7" s="81" t="s">
+        <v>500</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
